--- a/src/pom/ExcelData/LeaveAndAttendance/LeaveAndAttendance.xlsx
+++ b/src/pom/ExcelData/LeaveAndAttendance/LeaveAndAttendance.xlsx
@@ -14,12 +14,12 @@
     <sheet name="LeavePlannerViewer" sheetId="5" r:id="rId5"/>
     <sheet name="colourCode" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59">
   <si>
     <t>LeaveType</t>
   </si>
@@ -48,7 +48,7 @@
     <t>VerifyDate(U)</t>
   </si>
   <si>
-    <t>Annual Leave</t>
+    <t>Privilege Leave</t>
   </si>
   <si>
     <t>24/11/2017</t>
@@ -111,7 +111,7 @@
     <t>25/Nov/2017</t>
   </si>
   <si>
-    <t>Reporting Manager Approved</t>
+    <t>Approve By Reporting Manager</t>
   </si>
   <si>
     <t>Rejected By Reporting Manager</t>
@@ -159,22 +159,19 @@
     <t>Colour Code</t>
   </si>
   <si>
-    <t>Shinde Shraddha</t>
-  </si>
-  <si>
-    <t>09/Sep/2017</t>
-  </si>
-  <si>
-    <t>SEP</t>
+    <t>F Dinesh</t>
+  </si>
+  <si>
+    <t>NOV</t>
   </si>
   <si>
     <t>Emp. Name</t>
   </si>
   <si>
-    <t>00005 Shinde Shraddha</t>
-  </si>
-  <si>
-    <t>10</t>
+    <t>00044 F Dinesh</t>
+  </si>
+  <si>
+    <t>26</t>
   </si>
   <si>
     <t>background-color:#ffd695;</t>
@@ -247,7 +244,7 @@
       <charset val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -257,6 +254,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,6 +337,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -348,7 +352,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -699,49 +702,53 @@
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="7" width="15.875" customWidth="1"/>
+    <col min="3" max="3" width="15.875" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="7.875" customWidth="1"/>
+    <col min="7" max="7" width="8.125" customWidth="1"/>
     <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="9" max="9" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="15" t="s">
@@ -762,15 +769,15 @@
       <c r="G2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="11" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -791,10 +798,10 @@
       <c r="G3" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>21</v>
       </c>
     </row>
@@ -811,7 +818,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -822,44 +829,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>30</v>
       </c>
     </row>
@@ -886,26 +893,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
     </row>
@@ -922,7 +929,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -933,10 +940,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C1" s="5" t="s">
@@ -947,16 +954,16 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="11" t="s">
         <v>32</v>
       </c>
       <c r="C2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -973,7 +980,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="1"/>
@@ -998,7 +1005,7 @@
       <c r="C1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E1" s="5" t="s">
@@ -1010,7 +1017,7 @@
       <c r="G1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>44</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -1027,23 +1034,23 @@
       <c r="C2" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>47</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>48</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>49</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="I2" t="s">
         <v>51</v>
-      </c>
-      <c r="I2" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1066,7 @@
   <dimension ref="E1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelRow="3" outlineLevelCol="5"/>
@@ -1070,34 +1077,34 @@
   <sheetData>
     <row r="1" spans="5:6">
       <c r="E1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="5:6">
       <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3" spans="5:6">
       <c r="E3" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" spans="5:6">
       <c r="E4" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
